--- a/配置文档/地图相关/大地图生成.xlsx
+++ b/配置文档/地图相关/大地图生成.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18870" windowHeight="8910"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
-    <sheet name="cfg_BigMapBase_生成大地图" sheetId="3" r:id="rId1"/>
-    <sheet name="cfg_BigMapCell_大地图节点" sheetId="5" r:id="rId2"/>
+    <sheet name="cfg_BigMapMaterial_大地图节点" sheetId="5" r:id="rId1"/>
+    <sheet name="cfg_BigMapBase_生成大地图" sheetId="3" r:id="rId2"/>
     <sheet name="cfg_BigMapBigCell_大地图大结构" sheetId="8" r:id="rId3"/>
     <sheet name="cfg_BigMapCellLogic_节点绘制逻辑" sheetId="7" r:id="rId4"/>
     <sheet name="cfg_BigMapEvent_大地图节点事件" sheetId="6" r:id="rId5"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="5">数据类型!#REF!</definedName>
     <definedName name="数据类型_Sheet1" localSheetId="5">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="5">数据类型!$A$1:$D$37</definedName>
+    <definedName name="连接" localSheetId="5">数据类型!$A$1:$E$38</definedName>
     <definedName name="AB列">数据类型!$A:$B</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +49,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="206">
+  <si>
+    <t>该表用于大地图节点相关的配置
+一个节点是一个地块，这个地块
+可以连接一个副本，也可以
+连接一些特殊逻辑（如删除物品，添加物品，提示，提升科技等等）
+数据不想填就写 #BASEVALUE</t>
+  </si>
+  <si>
+    <t>地图节点id</t>
+  </si>
+  <si>
+    <t>地图节点描述</t>
+  </si>
+  <si>
+    <t>地图节点类型
+暂不使用</t>
+  </si>
+  <si>
+    <t>节点所用图集id
+地块表的cfg_MapImageSet_地图图像集id</t>
+  </si>
+  <si>
+    <t>所在图集序号</t>
+  </si>
+  <si>
+    <t>节点绘制逻辑id列表</t>
+  </si>
+  <si>
+    <t>是否可选中</t>
+  </si>
+  <si>
+    <t>是否可点击</t>
+  </si>
+  <si>
+    <t>地图节点 点击事件列表
+cfg_BigMapEvent_大地图节点事件的id列表</t>
+  </si>
+  <si>
+    <t>地图节点 进入事件列表
+cfg_BigMapEvent_大地图节点事件的id列表</t>
+  </si>
+  <si>
+    <t>字段导出设置</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>NodeId</t>
+  </si>
+  <si>
+    <t>NodeIdDescribe</t>
+  </si>
+  <si>
+    <t>NodeType</t>
+  </si>
+  <si>
+    <t>ImageSetId</t>
+  </si>
+  <si>
+    <t>ImageSetIndex</t>
+  </si>
+  <si>
+    <t>LogicIdList</t>
+  </si>
+  <si>
+    <t>IsSelect</t>
+  </si>
+  <si>
+    <t>IsClick</t>
+  </si>
+  <si>
+    <t>NodeClickEventList</t>
+  </si>
+  <si>
+    <t>NodeEnterEventList</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>墙壁节点</t>
+  </si>
+  <si>
+    <t>#BASEVALUE</t>
+  </si>
+  <si>
+    <t>空地节点</t>
+  </si>
+  <si>
+    <t>关卡节点</t>
+  </si>
   <si>
     <t>该表用于配置大地图相关的配置
 大地图是正六边形的地图
@@ -146,12 +247,6 @@
 路径</t>
   </si>
   <si>
-    <t>字段导出设置</t>
-  </si>
-  <si>
-    <t>字段名称</t>
-  </si>
-  <si>
     <t>BigMapId</t>
   </si>
   <si>
@@ -194,9 +289,6 @@
     <t>FixedtCellList</t>
   </si>
   <si>
-    <t>LogicIdList</t>
-  </si>
-  <si>
     <t>BackgroundType</t>
   </si>
   <si>
@@ -206,18 +298,9 @@
     <t>BackgroundShader</t>
   </si>
   <si>
-    <t>数据类型</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>STR</t>
   </si>
   <si>
-    <t>BOOL</t>
-  </si>
-  <si>
     <t>&lt;(INT)&gt;</t>
   </si>
   <si>
@@ -227,90 +310,7 @@
     <t>测试大地图生成</t>
   </si>
   <si>
-    <t>#BASEVALUE</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                             </t>
-  </si>
-  <si>
-    <t>该表用于大地图节点相关的配置
-一个节点是一个地块，这个地块
-可以连接一个副本，也可以
-连接一些特殊逻辑（如删除物品，添加物品，提示，提升科技等等）
-数据不想填就写 #BASEVALUE</t>
-  </si>
-  <si>
-    <t>地图节点id</t>
-  </si>
-  <si>
-    <t>地图节点描述</t>
-  </si>
-  <si>
-    <t>地图节点类型
-暂不使用</t>
-  </si>
-  <si>
-    <t>节点所用图集id
-地块表的cfg_MapImageSet_地图图像集id</t>
-  </si>
-  <si>
-    <t>所在图集序号</t>
-  </si>
-  <si>
-    <t>节点绘制逻辑id列表</t>
-  </si>
-  <si>
-    <t>是否可选中</t>
-  </si>
-  <si>
-    <t>是否可点击</t>
-  </si>
-  <si>
-    <t>地图节点 点击事件列表
-cfg_BigMapEvent_大地图节点事件的id列表</t>
-  </si>
-  <si>
-    <t>地图节点 进入事件列表
-cfg_BigMapEvent_大地图节点事件的id列表</t>
-  </si>
-  <si>
-    <t>NodeId</t>
-  </si>
-  <si>
-    <t>NodeIdDescribe</t>
-  </si>
-  <si>
-    <t>NodeType</t>
-  </si>
-  <si>
-    <t>ImageSetId</t>
-  </si>
-  <si>
-    <t>ImageSetIndex</t>
-  </si>
-  <si>
-    <t>IsSelect</t>
-  </si>
-  <si>
-    <t>IsClick</t>
-  </si>
-  <si>
-    <t>NodeClickEventList</t>
-  </si>
-  <si>
-    <t>NodeEnterEventList</t>
-  </si>
-  <si>
-    <t>&lt;INT&gt;</t>
-  </si>
-  <si>
-    <t>墙壁节点</t>
-  </si>
-  <si>
-    <t>空地节点</t>
-  </si>
-  <si>
-    <t>关卡节点</t>
   </si>
   <si>
     <t>该表只配置 生成方式的总体参数，如生成地图的长宽，是否需要有边界墙壁， 边界墙壁的材料（图集id+图集内序号）,墙壁厚度，生成密度，平滑度，区域最小尺寸小于这个尺寸就清除,  生成种子id(生成种子表的id)  ，包含随机大结构id列表，
@@ -493,12 +493,18 @@
     <t>数据类型名称</t>
   </si>
   <si>
+    <t>默认值</t>
+  </si>
+  <si>
     <t>数据类型描述</t>
   </si>
   <si>
     <t>数据类型示例</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>布尔值，用于表示 是或者否，True为是，False为否</t>
   </si>
   <si>
@@ -508,6 +514,9 @@
     <t>SHORT</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
   </si>
   <si>
@@ -544,6 +553,9 @@
     <t>&lt;BOOL&gt;</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>布尔值列表，用于保存一个由布尔值组成的列表</t>
   </si>
   <si>
@@ -592,6 +604,9 @@
     <t>(BOOL)</t>
   </si>
   <si>
+    <t>()</t>
+  </si>
+  <si>
     <t>(SHORT)</t>
   </si>
   <si>
@@ -619,6 +634,9 @@
     <t>LANG</t>
   </si>
   <si>
+    <t>KeyBase</t>
+  </si>
+  <si>
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
@@ -628,6 +646,9 @@
     <t>POINT</t>
   </si>
   <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
     <t>保存小数二维坐标的类型</t>
   </si>
   <si>
@@ -652,6 +673,9 @@
     <t>(1.2,3.5)|(1.4,3.2)</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Png图片，通常用于导出散图，导出单元格图片后，放在config\images\下</t>
   </si>
   <si>
@@ -676,21 +700,21 @@
     <t>RGB</t>
   </si>
   <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgb (x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0)</t>
-  </si>
-  <si>
     <t>RGBA</t>
   </si>
   <si>
+    <t>(0,0,0,0)</t>
+  </si>
+  <si>
     <t>颜色类型rgba (x,x,x,x) x最大255</t>
   </si>
   <si>
-    <t>(0,0,0,0)</t>
-  </si>
-  <si>
     <t>&lt;Vector2I&gt;</t>
   </si>
   <si>
@@ -710,6 +734,15 @@
   </si>
   <si>
     <t>BBCode是一种轻量标记语言，具体填写规则https://docs.godotengine.org/en/latest/tutorials/ui/bbcode_in_richtextlabel.html</t>
+  </si>
+  <si>
+    <t>HashSet&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>确保唯一的Int列表，c#中的HashSet&lt;int&gt;类型</t>
+  </si>
+  <si>
+    <t>1|2|3|4</t>
   </si>
 </sst>
 </file>
@@ -760,6 +793,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -767,13 +807,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1379,11 +1412,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1434,10 +1470,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1446,23 +1497,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1529,13 +1565,14 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="cfg_MapMaterial_生成地图用材料"/>
+      <sheetName val="cfg_GenerateFixedMap_固定地图配置"/>
       <sheetName val="cfg_GenerateBottomMap_随机生成地图方式"/>
-      <sheetName val="cfg_MapMaterial_生成地图用材料"/>
       <sheetName val="cfg_MapExtraDraw_地图额外绘制表"/>
       <sheetName val="cfg_GenerateBigStruct_地图大型结构"/>
       <sheetName val="cfg_GenerateAdornMap_装饰绘制层"/>
-      <sheetName val="cfg_MapWall_地图墙壁表"/>
       <sheetName val="cfg_MapPassType_地图可通过类型"/>
+      <sheetName val="cfg_MapEdge_地图边缘连接配置"/>
       <sheetName val="数据类型"/>
     </sheetNames>
     <sheetDataSet>
@@ -1547,6 +1584,7 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1554,12 +1592,13 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="连接" growShrinkType="overwriteClear" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="数据类型编号"/>
       <queryTableField id="2" name="数据类型名称"/>
-      <queryTableField id="3" name="数据类型描述"/>
-      <queryTableField id="4" name="数据类型示例"/>
+      <queryTableField id="3" name="默认值"/>
+      <queryTableField id="4" name="数据类型描述"/>
+      <queryTableField id="5" name="数据类型示例"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1815,10 +1854,382 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="2" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="34.25" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
+    <col min="7" max="10" width="26.875" customWidth="1"/>
+    <col min="11" max="11" width="28.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="1" ht="99.75" spans="1:11">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>2</v>
+      </c>
+      <c r="K2" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>4</v>
+      </c>
+      <c r="F5" s="26">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" s="24" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A6" s="24">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24">
+        <v>2</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>3</v>
+      </c>
+      <c r="F6" s="27">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="25" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A7" s="25">
+        <v>2</v>
+      </c>
+      <c r="B7" s="25">
+        <v>3</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <v>4</v>
+      </c>
+      <c r="F7" s="28">
+        <v>2</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" s="6" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:K4">
+      <formula1>数据类型!$B$2:$B$51</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="O16" sqref="O16"/>
     </sheetView>
@@ -1845,344 +2256,344 @@
   </cols>
   <sheetData>
     <row r="1" ht="156.75" spans="1:19">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:19">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21">
+        <v>2</v>
+      </c>
+      <c r="E2" s="21">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5">
+        <v>2</v>
+      </c>
+      <c r="L2" s="5">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2</v>
+      </c>
+      <c r="O2" s="11">
+        <v>2</v>
+      </c>
+      <c r="P2" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>2</v>
+      </c>
+      <c r="R2" s="11">
+        <v>2</v>
+      </c>
+      <c r="S2" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:19">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:19">
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" s="19" customFormat="1" ht="14.25" spans="1:19">
+      <c r="A5" s="19">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="19">
+        <v>10</v>
+      </c>
+      <c r="E5" s="19">
+        <v>10</v>
+      </c>
+      <c r="F5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>2</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>2</v>
+      </c>
+      <c r="L5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="19">
+        <v>200000</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="19">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:19">
-      <c r="A2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>2</v>
-      </c>
-      <c r="D2" s="25">
-        <v>2</v>
-      </c>
-      <c r="E2" s="25">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2</v>
-      </c>
-      <c r="K2" s="4">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4">
-        <v>2</v>
-      </c>
-      <c r="N2" s="4">
-        <v>2</v>
-      </c>
-      <c r="O2" s="10">
-        <v>2</v>
-      </c>
-      <c r="P2" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>2</v>
-      </c>
-      <c r="R2" s="10">
-        <v>2</v>
-      </c>
-      <c r="S2" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:19">
-      <c r="A3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="R5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:19">
-      <c r="A4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" s="23" customFormat="1" ht="14.25" spans="1:19">
-      <c r="A5" s="23">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23">
-        <v>1</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="23">
-        <v>10</v>
-      </c>
-      <c r="E5" s="23">
-        <v>10</v>
-      </c>
-      <c r="F5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="23">
-        <v>1</v>
-      </c>
-      <c r="H5" s="23">
-        <v>2</v>
-      </c>
-      <c r="I5" s="23">
-        <v>1</v>
-      </c>
-      <c r="J5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="23">
-        <v>2</v>
-      </c>
-      <c r="L5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="23">
-        <v>200000</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="23">
-        <v>0</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="14.25"/>
-    <row r="7" s="5" customFormat="1" ht="14.25"/>
-    <row r="8" s="5" customFormat="1" ht="14.25"/>
-    <row r="9" s="5" customFormat="1" ht="14.25"/>
-    <row r="10" s="5" customFormat="1" ht="14.25" spans="14:14">
-      <c r="N10" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="14.25"/>
-    <row r="12" s="5" customFormat="1" ht="14.25"/>
-    <row r="13" s="5" customFormat="1" ht="14.25"/>
-    <row r="14" s="5" customFormat="1" ht="14.25"/>
-    <row r="15" s="5" customFormat="1" ht="14.25"/>
-    <row r="16" s="5" customFormat="1" ht="14.25"/>
-    <row r="17" s="5" customFormat="1" ht="14.25"/>
-    <row r="18" s="5" customFormat="1" ht="14.25"/>
-    <row r="19" s="5" customFormat="1" ht="14.25"/>
-    <row r="20" s="5" customFormat="1" ht="14.25"/>
-    <row r="21" s="5" customFormat="1" ht="14.25"/>
-    <row r="22" s="5" customFormat="1" ht="14.25"/>
-    <row r="23" s="5" customFormat="1" ht="14.25"/>
-    <row r="24" s="5" customFormat="1" ht="14.25"/>
-    <row r="25" s="5" customFormat="1" ht="14.25"/>
-    <row r="26" s="5" customFormat="1" ht="14.25"/>
-    <row r="27" s="5" customFormat="1" ht="14.25"/>
-    <row r="28" s="5" customFormat="1" ht="14.25"/>
-    <row r="29" s="5" customFormat="1" ht="14.25"/>
-    <row r="30" s="5" customFormat="1" ht="14.25"/>
-    <row r="31" s="5" customFormat="1" ht="14.25"/>
-    <row r="32" s="5" customFormat="1" ht="14.25"/>
-    <row r="33" s="5" customFormat="1" ht="14.25"/>
-    <row r="34" s="5" customFormat="1" ht="14.25"/>
-    <row r="35" s="5" customFormat="1" ht="14.25"/>
-    <row r="36" s="5" customFormat="1" ht="14.25"/>
-    <row r="37" s="5" customFormat="1" ht="14.25"/>
-    <row r="38" s="5" customFormat="1" ht="14.25"/>
-    <row r="39" s="5" customFormat="1" ht="14.25"/>
-    <row r="40" s="5" customFormat="1" ht="14.25"/>
-    <row r="41" s="5" customFormat="1" ht="14.25"/>
-    <row r="42" s="5" customFormat="1" ht="14.25"/>
-    <row r="43" s="5" customFormat="1" ht="14.25"/>
-    <row r="44" s="5" customFormat="1" ht="14.25"/>
-    <row r="45" s="5" customFormat="1" ht="14.25"/>
+      <c r="S5" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="14.25"/>
+    <row r="7" s="6" customFormat="1" ht="14.25"/>
+    <row r="8" s="6" customFormat="1" ht="14.25"/>
+    <row r="9" s="6" customFormat="1" ht="14.25"/>
+    <row r="10" s="6" customFormat="1" ht="14.25" spans="14:14">
+      <c r="N10" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="14.25"/>
+    <row r="12" s="6" customFormat="1" ht="14.25"/>
+    <row r="13" s="6" customFormat="1" ht="14.25"/>
+    <row r="14" s="6" customFormat="1" ht="14.25"/>
+    <row r="15" s="6" customFormat="1" ht="14.25"/>
+    <row r="16" s="6" customFormat="1" ht="14.25"/>
+    <row r="17" s="6" customFormat="1" ht="14.25"/>
+    <row r="18" s="6" customFormat="1" ht="14.25"/>
+    <row r="19" s="6" customFormat="1" ht="14.25"/>
+    <row r="20" s="6" customFormat="1" ht="14.25"/>
+    <row r="21" s="6" customFormat="1" ht="14.25"/>
+    <row r="22" s="6" customFormat="1" ht="14.25"/>
+    <row r="23" s="6" customFormat="1" ht="14.25"/>
+    <row r="24" s="6" customFormat="1" ht="14.25"/>
+    <row r="25" s="6" customFormat="1" ht="14.25"/>
+    <row r="26" s="6" customFormat="1" ht="14.25"/>
+    <row r="27" s="6" customFormat="1" ht="14.25"/>
+    <row r="28" s="6" customFormat="1" ht="14.25"/>
+    <row r="29" s="6" customFormat="1" ht="14.25"/>
+    <row r="30" s="6" customFormat="1" ht="14.25"/>
+    <row r="31" s="6" customFormat="1" ht="14.25"/>
+    <row r="32" s="6" customFormat="1" ht="14.25"/>
+    <row r="33" s="6" customFormat="1" ht="14.25"/>
+    <row r="34" s="6" customFormat="1" ht="14.25"/>
+    <row r="35" s="6" customFormat="1" ht="14.25"/>
+    <row r="36" s="6" customFormat="1" ht="14.25"/>
+    <row r="37" s="6" customFormat="1" ht="14.25"/>
+    <row r="38" s="6" customFormat="1" ht="14.25"/>
+    <row r="39" s="6" customFormat="1" ht="14.25"/>
+    <row r="40" s="6" customFormat="1" ht="14.25"/>
+    <row r="41" s="6" customFormat="1" ht="14.25"/>
+    <row r="42" s="6" customFormat="1" ht="14.25"/>
+    <row r="43" s="6" customFormat="1" ht="14.25"/>
+    <row r="44" s="6" customFormat="1" ht="14.25"/>
+    <row r="45" s="6" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:I4 K4:M4 O4:S4">
@@ -2197,385 +2608,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="34.25" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
-    <col min="7" max="10" width="26.875" customWidth="1"/>
-    <col min="11" max="11" width="28.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="1" ht="99.75" spans="1:11">
-      <c r="A1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2</v>
-      </c>
-      <c r="J2" s="10">
-        <v>2</v>
-      </c>
-      <c r="K2" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20">
-        <v>4</v>
-      </c>
-      <c r="F5" s="20">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" s="18" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A6" s="18">
-        <v>1</v>
-      </c>
-      <c r="B6" s="18">
-        <v>2</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
-        <v>3</v>
-      </c>
-      <c r="F6" s="21">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="19" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A7" s="19">
-        <v>2</v>
-      </c>
-      <c r="B7" s="19">
-        <v>3</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22">
-        <v>4</v>
-      </c>
-      <c r="F7" s="22">
-        <v>2</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E18"/>
-      <c r="F18"/>
-    </row>
-    <row r="19" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E19"/>
-      <c r="F19"/>
-    </row>
-    <row r="20" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E20"/>
-      <c r="F20"/>
-    </row>
-    <row r="21" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E21"/>
-      <c r="F21"/>
-    </row>
-    <row r="22" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E22"/>
-      <c r="F22"/>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E23"/>
-      <c r="F23"/>
-    </row>
-    <row r="24" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E24"/>
-      <c r="F24"/>
-    </row>
-    <row r="25" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E25"/>
-      <c r="F25"/>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E31"/>
-      <c r="F31"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:K4">
-      <formula1>数据类型!$B$2:$B$51</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2593,249 +2632,249 @@
     <col min="11" max="11" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="165" customHeight="1" spans="1:11">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="4" customFormat="1" ht="165" customHeight="1" spans="1:11">
+      <c r="A1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="10">
+    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="9" t="s">
+    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="F4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" s="11" customFormat="1" ht="54" spans="1:11">
-      <c r="A5" s="15">
+      <c r="K4" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" s="12" customFormat="1" ht="54" spans="1:11">
+      <c r="A5" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="16">
         <v>1</v>
       </c>
-      <c r="H5" s="15" t="b">
+      <c r="H5" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="16">
         <v>10000</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="16">
         <v>10000</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="1" ht="94.5" spans="1:11">
-      <c r="A6" s="15">
+    <row r="6" s="12" customFormat="1" ht="94.5" spans="1:11">
+      <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="15">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="16">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="16">
         <v>0</v>
       </c>
-      <c r="H6" s="15" t="b">
+      <c r="H6" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="16">
         <v>0</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="16">
         <v>1000</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" s="12" customFormat="1" ht="40.5" spans="1:11">
-      <c r="A7" s="12">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="K6" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" s="13" customFormat="1" ht="40.5" spans="1:11">
+      <c r="A7" s="13">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="12">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="13">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13">
         <v>0</v>
       </c>
-      <c r="H7" s="12" t="b">
+      <c r="H7" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="13">
         <v>0</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="13">
         <v>1000</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>46</v>
+      <c r="K7" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2860,47 +2899,47 @@
   </cols>
   <sheetData>
     <row r="1" ht="57" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>50</v>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>60</v>
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>40</v>
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2919,8 +2958,8 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2933,142 +2972,142 @@
     <col min="7" max="7" width="17.7833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="60" customHeight="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="4" customFormat="1" ht="60" customHeight="1" spans="1:7">
+      <c r="A1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="10">
+    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="9" t="s">
+    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A5" s="5">
+    <row r="5" s="6" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="14.25"/>
-    <row r="7" s="5" customFormat="1" ht="14.25"/>
-    <row r="8" s="5" customFormat="1" ht="14.25"/>
-    <row r="9" s="5" customFormat="1" ht="14.25"/>
-    <row r="10" s="5" customFormat="1" ht="14.25"/>
-    <row r="11" s="5" customFormat="1" ht="14.25"/>
-    <row r="12" s="5" customFormat="1" ht="14.25"/>
-    <row r="13" s="5" customFormat="1" ht="14.25"/>
-    <row r="14" s="5" customFormat="1" ht="14.25"/>
-    <row r="15" s="5" customFormat="1" ht="14.25"/>
-    <row r="16" s="5" customFormat="1" ht="14.25"/>
-    <row r="17" s="5" customFormat="1" ht="14.25"/>
-    <row r="18" s="5" customFormat="1" ht="14.25"/>
-    <row r="19" s="5" customFormat="1" ht="14.25"/>
-    <row r="20" s="5" customFormat="1" ht="14.25"/>
-    <row r="21" s="5" customFormat="1" ht="14.25"/>
-    <row r="22" s="5" customFormat="1" ht="14.25"/>
-    <row r="23" s="5" customFormat="1" ht="14.25"/>
-    <row r="24" s="5" customFormat="1" ht="14.25"/>
-    <row r="25" s="5" customFormat="1" ht="14.25"/>
-    <row r="26" s="5" customFormat="1" ht="14.25"/>
+      <c r="F5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="14.25"/>
+    <row r="7" s="6" customFormat="1" ht="14.25"/>
+    <row r="8" s="6" customFormat="1" ht="14.25"/>
+    <row r="9" s="6" customFormat="1" ht="14.25"/>
+    <row r="10" s="6" customFormat="1" ht="14.25"/>
+    <row r="11" s="6" customFormat="1" ht="14.25"/>
+    <row r="12" s="6" customFormat="1" ht="14.25"/>
+    <row r="13" s="6" customFormat="1" ht="14.25"/>
+    <row r="14" s="6" customFormat="1" ht="14.25"/>
+    <row r="15" s="6" customFormat="1" ht="14.25"/>
+    <row r="16" s="6" customFormat="1" ht="14.25"/>
+    <row r="17" s="6" customFormat="1" ht="14.25"/>
+    <row r="18" s="6" customFormat="1" ht="14.25"/>
+    <row r="19" s="6" customFormat="1" ht="14.25"/>
+    <row r="20" s="6" customFormat="1" ht="14.25"/>
+    <row r="21" s="6" customFormat="1" ht="14.25"/>
+    <row r="22" s="6" customFormat="1" ht="14.25"/>
+    <row r="23" s="6" customFormat="1" ht="14.25"/>
+    <row r="24" s="6" customFormat="1" ht="14.25"/>
+    <row r="25" s="6" customFormat="1" ht="14.25"/>
+    <row r="26" s="6" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:G4">
@@ -3083,20 +3122,21 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="79.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
@@ -3109,64 +3149,79 @@
       <c r="D1" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>126</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>135</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3174,363 +3229,470 @@
         <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>137</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>139</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>143</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>146</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>148</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>151</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>154</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>142</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>158</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>160</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>161</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>162</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>163</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>164</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>165</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>166</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>167</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>170</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>174</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>177</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>180</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>182</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>185</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>188</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>192</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>195</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>197</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>191</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>199</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/地图相关/大地图生成.xlsx
+++ b/配置文档/地图相关/大地图生成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_BigMapMaterial_大地图节点" sheetId="5" r:id="rId1"/>
@@ -1412,14 +1412,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1856,7 +1853,7 @@
   <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -1871,344 +1868,344 @@
     <col min="11" max="11" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="99.75" spans="1:11">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" ht="99.75" spans="1:11">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>0</v>
       </c>
-      <c r="D2" s="11">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
-      <c r="J2" s="11">
-        <v>2</v>
-      </c>
-      <c r="K2" s="11">
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A5" s="6">
+    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>4</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="6" t="b">
+      <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="6" t="b">
+      <c r="I5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" s="24" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A6" s="24">
+    <row r="6" s="23" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A6" s="23">
         <v>1</v>
       </c>
-      <c r="B6" s="24">
-        <v>2</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="23">
+        <v>2</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>0</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>3</v>
       </c>
-      <c r="F6" s="27">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="26">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="6" t="b">
+      <c r="H6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="6" t="b">
+      <c r="I6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="25" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A7" s="25">
-        <v>2</v>
-      </c>
-      <c r="B7" s="25">
+    <row r="7" s="24" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A7" s="24">
+        <v>2</v>
+      </c>
+      <c r="B7" s="24">
         <v>3</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>0</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>4</v>
       </c>
-      <c r="F7" s="28">
-        <v>2</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="27">
+        <v>2</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="19" t="b">
+      <c r="H7" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="19" t="b">
+      <c r="I7" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="14.25" spans="5:6">
+    <row r="8" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="14.25" spans="5:6">
       <c r="E18"/>
       <c r="F18"/>
     </row>
-    <row r="19" s="6" customFormat="1" ht="14.25" spans="5:6">
+    <row r="19" s="5" customFormat="1" ht="14.25" spans="5:6">
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" s="6" customFormat="1" ht="14.25" spans="5:6">
+    <row r="20" s="5" customFormat="1" ht="14.25" spans="5:6">
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" s="6" customFormat="1" ht="14.25" spans="5:6">
+    <row r="21" s="5" customFormat="1" ht="14.25" spans="5:6">
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" s="6" customFormat="1" ht="14.25" spans="5:6">
+    <row r="22" s="5" customFormat="1" ht="14.25" spans="5:6">
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" s="6" customFormat="1" ht="14.25" spans="5:6">
+    <row r="23" s="5" customFormat="1" ht="14.25" spans="5:6">
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" s="6" customFormat="1" ht="14.25" spans="5:6">
+    <row r="24" s="5" customFormat="1" ht="14.25" spans="5:6">
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" s="6" customFormat="1" ht="14.25" spans="5:6">
+    <row r="25" s="5" customFormat="1" ht="14.25" spans="5:6">
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" s="6" customFormat="1" ht="14.25" spans="5:6">
+    <row r="26" s="5" customFormat="1" ht="14.25" spans="5:6">
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" s="6" customFormat="1" ht="14.25" spans="5:6">
+    <row r="27" s="5" customFormat="1" ht="14.25" spans="5:6">
       <c r="E27"/>
       <c r="F27"/>
     </row>
-    <row r="28" s="6" customFormat="1" ht="14.25" spans="5:6">
+    <row r="28" s="5" customFormat="1" ht="14.25" spans="5:6">
       <c r="E28"/>
       <c r="F28"/>
     </row>
-    <row r="29" s="6" customFormat="1" ht="14.25" spans="5:6">
+    <row r="29" s="5" customFormat="1" ht="14.25" spans="5:6">
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" s="6" customFormat="1" ht="14.25" spans="5:6">
+    <row r="30" s="5" customFormat="1" ht="14.25" spans="5:6">
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" s="6" customFormat="1" ht="14.25" spans="5:6">
+    <row r="31" s="5" customFormat="1" ht="14.25" spans="5:6">
       <c r="E31"/>
       <c r="F31"/>
     </row>
@@ -2228,10 +2225,10 @@
   <sheetPr/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O16" sqref="O16"/>
+      <selection pane="topRight" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2256,344 +2253,344 @@
   </cols>
   <sheetData>
     <row r="1" ht="156.75" spans="1:19">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:19">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-      <c r="D2" s="21">
-        <v>2</v>
-      </c>
-      <c r="E2" s="21">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2</v>
-      </c>
-      <c r="K2" s="5">
-        <v>2</v>
-      </c>
-      <c r="L2" s="5">
-        <v>2</v>
-      </c>
-      <c r="M2" s="5">
-        <v>2</v>
-      </c>
-      <c r="N2" s="5">
-        <v>2</v>
-      </c>
-      <c r="O2" s="11">
-        <v>2</v>
-      </c>
-      <c r="P2" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>2</v>
-      </c>
-      <c r="R2" s="11">
-        <v>2</v>
-      </c>
-      <c r="S2" s="11">
+      <c r="C2" s="10">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4">
+        <v>2</v>
+      </c>
+      <c r="O2" s="10">
+        <v>2</v>
+      </c>
+      <c r="P2" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>2</v>
+      </c>
+      <c r="R2" s="10">
+        <v>2</v>
+      </c>
+      <c r="S2" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:19">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:19">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" s="19" customFormat="1" ht="14.25" spans="1:19">
-      <c r="A5" s="19">
-        <v>2</v>
-      </c>
-      <c r="B5" s="19">
+    <row r="5" s="18" customFormat="1" ht="14.25" spans="1:19">
+      <c r="A5" s="18">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>10</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>10</v>
       </c>
-      <c r="F5" s="19" t="b">
+      <c r="F5" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>1</v>
       </c>
-      <c r="H5" s="19">
-        <v>2</v>
-      </c>
-      <c r="I5" s="19">
+      <c r="H5" s="18">
+        <v>2</v>
+      </c>
+      <c r="I5" s="18">
         <v>1</v>
       </c>
-      <c r="J5" s="19" t="b">
+      <c r="J5" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="19">
-        <v>2</v>
-      </c>
-      <c r="L5" s="19" t="b">
+      <c r="K5" s="18">
+        <v>2</v>
+      </c>
+      <c r="L5" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="18">
         <v>200000</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="18">
         <v>0</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="14.25"/>
-    <row r="7" s="6" customFormat="1" ht="14.25"/>
-    <row r="8" s="6" customFormat="1" ht="14.25"/>
-    <row r="9" s="6" customFormat="1" ht="14.25"/>
-    <row r="10" s="6" customFormat="1" ht="14.25" spans="14:14">
-      <c r="N10" s="6" t="s">
+    <row r="6" s="5" customFormat="1" ht="14.25"/>
+    <row r="7" s="5" customFormat="1" ht="14.25"/>
+    <row r="8" s="5" customFormat="1" ht="14.25"/>
+    <row r="9" s="5" customFormat="1" ht="14.25"/>
+    <row r="10" s="5" customFormat="1" ht="14.25" spans="14:14">
+      <c r="N10" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" ht="14.25"/>
-    <row r="12" s="6" customFormat="1" ht="14.25"/>
-    <row r="13" s="6" customFormat="1" ht="14.25"/>
-    <row r="14" s="6" customFormat="1" ht="14.25"/>
-    <row r="15" s="6" customFormat="1" ht="14.25"/>
-    <row r="16" s="6" customFormat="1" ht="14.25"/>
-    <row r="17" s="6" customFormat="1" ht="14.25"/>
-    <row r="18" s="6" customFormat="1" ht="14.25"/>
-    <row r="19" s="6" customFormat="1" ht="14.25"/>
-    <row r="20" s="6" customFormat="1" ht="14.25"/>
-    <row r="21" s="6" customFormat="1" ht="14.25"/>
-    <row r="22" s="6" customFormat="1" ht="14.25"/>
-    <row r="23" s="6" customFormat="1" ht="14.25"/>
-    <row r="24" s="6" customFormat="1" ht="14.25"/>
-    <row r="25" s="6" customFormat="1" ht="14.25"/>
-    <row r="26" s="6" customFormat="1" ht="14.25"/>
-    <row r="27" s="6" customFormat="1" ht="14.25"/>
-    <row r="28" s="6" customFormat="1" ht="14.25"/>
-    <row r="29" s="6" customFormat="1" ht="14.25"/>
-    <row r="30" s="6" customFormat="1" ht="14.25"/>
-    <row r="31" s="6" customFormat="1" ht="14.25"/>
-    <row r="32" s="6" customFormat="1" ht="14.25"/>
-    <row r="33" s="6" customFormat="1" ht="14.25"/>
-    <row r="34" s="6" customFormat="1" ht="14.25"/>
-    <row r="35" s="6" customFormat="1" ht="14.25"/>
-    <row r="36" s="6" customFormat="1" ht="14.25"/>
-    <row r="37" s="6" customFormat="1" ht="14.25"/>
-    <row r="38" s="6" customFormat="1" ht="14.25"/>
-    <row r="39" s="6" customFormat="1" ht="14.25"/>
-    <row r="40" s="6" customFormat="1" ht="14.25"/>
-    <row r="41" s="6" customFormat="1" ht="14.25"/>
-    <row r="42" s="6" customFormat="1" ht="14.25"/>
-    <row r="43" s="6" customFormat="1" ht="14.25"/>
-    <row r="44" s="6" customFormat="1" ht="14.25"/>
-    <row r="45" s="6" customFormat="1" ht="14.25"/>
+    <row r="11" s="5" customFormat="1" ht="14.25"/>
+    <row r="12" s="5" customFormat="1" ht="14.25"/>
+    <row r="13" s="5" customFormat="1" ht="14.25"/>
+    <row r="14" s="5" customFormat="1" ht="14.25"/>
+    <row r="15" s="5" customFormat="1" ht="14.25"/>
+    <row r="16" s="5" customFormat="1" ht="14.25"/>
+    <row r="17" s="5" customFormat="1" ht="14.25"/>
+    <row r="18" s="5" customFormat="1" ht="14.25"/>
+    <row r="19" s="5" customFormat="1" ht="14.25"/>
+    <row r="20" s="5" customFormat="1" ht="14.25"/>
+    <row r="21" s="5" customFormat="1" ht="14.25"/>
+    <row r="22" s="5" customFormat="1" ht="14.25"/>
+    <row r="23" s="5" customFormat="1" ht="14.25"/>
+    <row r="24" s="5" customFormat="1" ht="14.25"/>
+    <row r="25" s="5" customFormat="1" ht="14.25"/>
+    <row r="26" s="5" customFormat="1" ht="14.25"/>
+    <row r="27" s="5" customFormat="1" ht="14.25"/>
+    <row r="28" s="5" customFormat="1" ht="14.25"/>
+    <row r="29" s="5" customFormat="1" ht="14.25"/>
+    <row r="30" s="5" customFormat="1" ht="14.25"/>
+    <row r="31" s="5" customFormat="1" ht="14.25"/>
+    <row r="32" s="5" customFormat="1" ht="14.25"/>
+    <row r="33" s="5" customFormat="1" ht="14.25"/>
+    <row r="34" s="5" customFormat="1" ht="14.25"/>
+    <row r="35" s="5" customFormat="1" ht="14.25"/>
+    <row r="36" s="5" customFormat="1" ht="14.25"/>
+    <row r="37" s="5" customFormat="1" ht="14.25"/>
+    <row r="38" s="5" customFormat="1" ht="14.25"/>
+    <row r="39" s="5" customFormat="1" ht="14.25"/>
+    <row r="40" s="5" customFormat="1" ht="14.25"/>
+    <row r="41" s="5" customFormat="1" ht="14.25"/>
+    <row r="42" s="5" customFormat="1" ht="14.25"/>
+    <row r="43" s="5" customFormat="1" ht="14.25"/>
+    <row r="44" s="5" customFormat="1" ht="14.25"/>
+    <row r="45" s="5" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:I4 K4:M4 O4:S4">
@@ -2632,248 +2629,248 @@
     <col min="11" max="11" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="165" customHeight="1" spans="1:11">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" ht="165" customHeight="1" spans="1:11">
+      <c r="A1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
-      <c r="J2" s="5">
-        <v>2</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="C2" s="10">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" ht="54" spans="1:11">
-      <c r="A5" s="16">
+    <row r="5" s="11" customFormat="1" ht="54" spans="1:11">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>1</v>
       </c>
-      <c r="H5" s="16" t="b">
+      <c r="H5" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>10000</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>10000</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" ht="94.5" spans="1:11">
-      <c r="A6" s="16">
+    <row r="6" s="11" customFormat="1" ht="94.5" spans="1:11">
+      <c r="A6" s="15">
         <v>1</v>
       </c>
-      <c r="B6" s="16">
-        <v>2</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>0</v>
       </c>
-      <c r="H6" s="16" t="b">
+      <c r="H6" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>0</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>1000</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" s="13" customFormat="1" ht="40.5" spans="1:11">
-      <c r="A7" s="13">
-        <v>2</v>
-      </c>
-      <c r="B7" s="13">
+    <row r="7" s="12" customFormat="1" ht="40.5" spans="1:11">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="13">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>0</v>
       </c>
-      <c r="H7" s="13" t="b">
+      <c r="H7" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>0</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>1000</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2888,7 +2885,7 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2899,46 +2896,46 @@
   </cols>
   <sheetData>
     <row r="1" ht="57" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2972,142 +2969,142 @@
     <col min="7" max="7" width="17.7833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="60" customHeight="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" ht="60" customHeight="1" spans="1:7">
+      <c r="A1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>0</v>
       </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A5" s="6">
+    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="14.25"/>
-    <row r="7" s="6" customFormat="1" ht="14.25"/>
-    <row r="8" s="6" customFormat="1" ht="14.25"/>
-    <row r="9" s="6" customFormat="1" ht="14.25"/>
-    <row r="10" s="6" customFormat="1" ht="14.25"/>
-    <row r="11" s="6" customFormat="1" ht="14.25"/>
-    <row r="12" s="6" customFormat="1" ht="14.25"/>
-    <row r="13" s="6" customFormat="1" ht="14.25"/>
-    <row r="14" s="6" customFormat="1" ht="14.25"/>
-    <row r="15" s="6" customFormat="1" ht="14.25"/>
-    <row r="16" s="6" customFormat="1" ht="14.25"/>
-    <row r="17" s="6" customFormat="1" ht="14.25"/>
-    <row r="18" s="6" customFormat="1" ht="14.25"/>
-    <row r="19" s="6" customFormat="1" ht="14.25"/>
-    <row r="20" s="6" customFormat="1" ht="14.25"/>
-    <row r="21" s="6" customFormat="1" ht="14.25"/>
-    <row r="22" s="6" customFormat="1" ht="14.25"/>
-    <row r="23" s="6" customFormat="1" ht="14.25"/>
-    <row r="24" s="6" customFormat="1" ht="14.25"/>
-    <row r="25" s="6" customFormat="1" ht="14.25"/>
-    <row r="26" s="6" customFormat="1" ht="14.25"/>
+    <row r="6" s="5" customFormat="1" ht="14.25"/>
+    <row r="7" s="5" customFormat="1" ht="14.25"/>
+    <row r="8" s="5" customFormat="1" ht="14.25"/>
+    <row r="9" s="5" customFormat="1" ht="14.25"/>
+    <row r="10" s="5" customFormat="1" ht="14.25"/>
+    <row r="11" s="5" customFormat="1" ht="14.25"/>
+    <row r="12" s="5" customFormat="1" ht="14.25"/>
+    <row r="13" s="5" customFormat="1" ht="14.25"/>
+    <row r="14" s="5" customFormat="1" ht="14.25"/>
+    <row r="15" s="5" customFormat="1" ht="14.25"/>
+    <row r="16" s="5" customFormat="1" ht="14.25"/>
+    <row r="17" s="5" customFormat="1" ht="14.25"/>
+    <row r="18" s="5" customFormat="1" ht="14.25"/>
+    <row r="19" s="5" customFormat="1" ht="14.25"/>
+    <row r="20" s="5" customFormat="1" ht="14.25"/>
+    <row r="21" s="5" customFormat="1" ht="14.25"/>
+    <row r="22" s="5" customFormat="1" ht="14.25"/>
+    <row r="23" s="5" customFormat="1" ht="14.25"/>
+    <row r="24" s="5" customFormat="1" ht="14.25"/>
+    <row r="25" s="5" customFormat="1" ht="14.25"/>
+    <row r="26" s="5" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:G4">
@@ -3679,19 +3676,19 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>205</v>
       </c>
     </row>

--- a/配置文档/地图相关/大地图生成.xlsx
+++ b/配置文档/地图相关/大地图生成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="1"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_BigMapMaterial_大地图节点" sheetId="5" r:id="rId1"/>
@@ -1853,8 +1853,8 @@
   <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2225,10 +2225,10 @@
   <sheetPr/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P35" sqref="P35"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="18">
         <v>2</v>

--- a/配置文档/地图相关/大地图生成.xlsx
+++ b/配置文档/地图相关/大地图生成.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="cfg_BigMapMaterial_大地图节点" sheetId="5" r:id="rId1"/>
-    <sheet name="cfg_BigMapBase_生成大地图" sheetId="3" r:id="rId2"/>
+    <sheet name="cfg_BigMapBase_生成大地图" sheetId="3" r:id="rId1"/>
+    <sheet name="cfg_BigMapMaterial_大地图节点" sheetId="5" r:id="rId2"/>
     <sheet name="cfg_BigMapBigCell_大地图大结构" sheetId="8" r:id="rId3"/>
     <sheet name="cfg_BigMapCellLogic_节点绘制逻辑" sheetId="7" r:id="rId4"/>
     <sheet name="cfg_BigMapEvent_大地图节点事件" sheetId="6" r:id="rId5"/>
@@ -49,108 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="206">
-  <si>
-    <t>该表用于大地图节点相关的配置
-一个节点是一个地块，这个地块
-可以连接一个副本，也可以
-连接一些特殊逻辑（如删除物品，添加物品，提示，提升科技等等）
-数据不想填就写 #BASEVALUE</t>
-  </si>
-  <si>
-    <t>地图节点id</t>
-  </si>
-  <si>
-    <t>地图节点描述</t>
-  </si>
-  <si>
-    <t>地图节点类型
-暂不使用</t>
-  </si>
-  <si>
-    <t>节点所用图集id
-地块表的cfg_MapImageSet_地图图像集id</t>
-  </si>
-  <si>
-    <t>所在图集序号</t>
-  </si>
-  <si>
-    <t>节点绘制逻辑id列表</t>
-  </si>
-  <si>
-    <t>是否可选中</t>
-  </si>
-  <si>
-    <t>是否可点击</t>
-  </si>
-  <si>
-    <t>地图节点 点击事件列表
-cfg_BigMapEvent_大地图节点事件的id列表</t>
-  </si>
-  <si>
-    <t>地图节点 进入事件列表
-cfg_BigMapEvent_大地图节点事件的id列表</t>
-  </si>
-  <si>
-    <t>字段导出设置</t>
-  </si>
-  <si>
-    <t>字段名称</t>
-  </si>
-  <si>
-    <t>NodeId</t>
-  </si>
-  <si>
-    <t>NodeIdDescribe</t>
-  </si>
-  <si>
-    <t>NodeType</t>
-  </si>
-  <si>
-    <t>ImageSetId</t>
-  </si>
-  <si>
-    <t>ImageSetIndex</t>
-  </si>
-  <si>
-    <t>LogicIdList</t>
-  </si>
-  <si>
-    <t>IsSelect</t>
-  </si>
-  <si>
-    <t>IsClick</t>
-  </si>
-  <si>
-    <t>NodeClickEventList</t>
-  </si>
-  <si>
-    <t>NodeEnterEventList</t>
-  </si>
-  <si>
-    <t>数据类型</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>&lt;INT&gt;</t>
-  </si>
-  <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>墙壁节点</t>
-  </si>
-  <si>
-    <t>#BASEVALUE</t>
-  </si>
-  <si>
-    <t>空地节点</t>
-  </si>
-  <si>
-    <t>关卡节点</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="215">
   <si>
     <t>该表用于配置大地图相关的配置
 大地图是正六边形的地图
@@ -247,6 +146,12 @@
 路径</t>
   </si>
   <si>
+    <t>字段导出设置</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
     <t>BigMapId</t>
   </si>
   <si>
@@ -289,6 +194,9 @@
     <t>FixedtCellList</t>
   </si>
   <si>
+    <t>LogicIdList</t>
+  </si>
+  <si>
     <t>BackgroundType</t>
   </si>
   <si>
@@ -298,9 +206,18 @@
     <t>BackgroundShader</t>
   </si>
   <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
     <t>STR</t>
   </si>
   <si>
+    <t>BOOL</t>
+  </si>
+  <si>
     <t>&lt;(INT)&gt;</t>
   </si>
   <si>
@@ -310,7 +227,117 @@
     <t>测试大地图生成</t>
   </si>
   <si>
+    <t>#BASEVALUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">                                             </t>
+  </si>
+  <si>
+    <t>该表用于大地图节点相关的配置
+一个节点是一个地块，这个地块
+可以连接一个副本，也可以
+连接一些特殊逻辑（如删除物品，添加物品，提示，提升科技等等）
+数据不想填就写 #BASEVALUE</t>
+  </si>
+  <si>
+    <t>地图节点id</t>
+  </si>
+  <si>
+    <t>地图节点描述</t>
+  </si>
+  <si>
+    <t>地图节点类型
+暂不使用</t>
+  </si>
+  <si>
+    <t>节点所用图集id
+地块表的cfg_MapImageSet_地图图像集id</t>
+  </si>
+  <si>
+    <t>所在图集序号</t>
+  </si>
+  <si>
+    <t>节点绘制逻辑id列表</t>
+  </si>
+  <si>
+    <t>是否可选中</t>
+  </si>
+  <si>
+    <t>是否可点击</t>
+  </si>
+  <si>
+    <t>地图节点 点击事件列表
+cfg_BigMapEvent_大地图节点事件的id列表</t>
+  </si>
+  <si>
+    <t>地图节点 进入事件列表
+cfg_BigMapEvent_大地图节点事件的id列表</t>
+  </si>
+  <si>
+    <t>NodeId</t>
+  </si>
+  <si>
+    <t>NodeIdDescribe</t>
+  </si>
+  <si>
+    <t>NodeType</t>
+  </si>
+  <si>
+    <t>ImageSetId</t>
+  </si>
+  <si>
+    <t>ImageSetIndex</t>
+  </si>
+  <si>
+    <t>IsSelect</t>
+  </si>
+  <si>
+    <t>IsClick</t>
+  </si>
+  <si>
+    <t>NodeClickEventList</t>
+  </si>
+  <si>
+    <t>NodeEnterEventList</t>
+  </si>
+  <si>
+    <t>&lt;INT&gt;</t>
+  </si>
+  <si>
+    <t>墙壁节点</t>
+  </si>
+  <si>
+    <t>空地节点</t>
+  </si>
+  <si>
+    <t>关卡节点</t>
+  </si>
+  <si>
+    <t>拉轮凯斯郊区</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>1-1战役模式-常规-初启协议</t>
+  </si>
+  <si>
+    <t>1-2战役模式-常规-网格枢纽</t>
+  </si>
+  <si>
+    <t>1-3战役模式-常规-怨灵水晶</t>
+  </si>
+  <si>
+    <t>1-4战役模式-常规-棱镜之井</t>
+  </si>
+  <si>
+    <t>1-5战役模式-常规-钢铁洪流</t>
+  </si>
+  <si>
+    <t>1-6战役模式-常规-重炮破晓</t>
+  </si>
+  <si>
+    <t>1-7战役模式-常规-次元岛装置</t>
   </si>
   <si>
     <t>该表只配置 生成方式的总体参数，如生成地图的长宽，是否需要有边界墙壁， 边界墙壁的材料（图集id+图集内序号）,墙壁厚度，生成密度，平滑度，区域最小尺寸小于这个尺寸就清除,  生成种子id(生成种子表的id)  ，包含随机大结构id列表，
@@ -793,13 +820,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -807,6 +827,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1412,7 +1439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1467,35 +1494,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1851,384 +1881,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="34.25" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
-    <col min="7" max="10" width="26.875" customWidth="1"/>
-    <col min="11" max="11" width="28.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="1" ht="99.75" spans="1:11">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2</v>
-      </c>
-      <c r="J2" s="10">
-        <v>2</v>
-      </c>
-      <c r="K2" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="25">
-        <v>4</v>
-      </c>
-      <c r="F5" s="25">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" s="23" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A6" s="23">
-        <v>1</v>
-      </c>
-      <c r="B6" s="23">
-        <v>2</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0</v>
-      </c>
-      <c r="E6" s="26">
-        <v>3</v>
-      </c>
-      <c r="F6" s="26">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="24" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A7" s="24">
-        <v>2</v>
-      </c>
-      <c r="B7" s="24">
-        <v>3</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27">
-        <v>4</v>
-      </c>
-      <c r="F7" s="27">
-        <v>2</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E18"/>
-      <c r="F18"/>
-    </row>
-    <row r="19" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E19"/>
-      <c r="F19"/>
-    </row>
-    <row r="20" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E20"/>
-      <c r="F20"/>
-    </row>
-    <row r="21" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E21"/>
-      <c r="F21"/>
-    </row>
-    <row r="22" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E22"/>
-      <c r="F22"/>
-    </row>
-    <row r="23" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E23"/>
-      <c r="F23"/>
-    </row>
-    <row r="24" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E24"/>
-      <c r="F24"/>
-    </row>
-    <row r="25" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E25"/>
-      <c r="F25"/>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E26"/>
-      <c r="F26"/>
-    </row>
-    <row r="27" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E27"/>
-      <c r="F27"/>
-    </row>
-    <row r="28" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E28"/>
-      <c r="F28"/>
-    </row>
-    <row r="29" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E29"/>
-      <c r="F29"/>
-    </row>
-    <row r="30" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" s="5" customFormat="1" ht="14.25" spans="5:6">
-      <c r="E31"/>
-      <c r="F31"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:K4">
-      <formula1>数据类型!$B$2:$B$51</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2254,66 +1912,66 @@
   <sheetData>
     <row r="1" ht="156.75" spans="1:19">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:19">
       <c r="A2" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -2321,10 +1979,10 @@
       <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="20">
-        <v>2</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="D2" s="26">
+        <v>2</v>
+      </c>
+      <c r="E2" s="26">
         <v>2</v>
       </c>
       <c r="F2" s="4">
@@ -2372,179 +2030,179 @@
     </row>
     <row r="3" ht="14.25" spans="1:19">
       <c r="A3" s="9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>53</v>
+        <v>22</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:19">
       <c r="A4" s="9" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" s="18" customFormat="1" ht="14.25" spans="1:19">
-      <c r="A5" s="18">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" s="23" customFormat="1" ht="14.25" spans="1:19">
+      <c r="A5" s="23">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="23">
         <v>10</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="23">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18">
-        <v>1</v>
-      </c>
-      <c r="H5" s="18">
-        <v>2</v>
-      </c>
-      <c r="I5" s="18">
-        <v>1</v>
-      </c>
-      <c r="J5" s="18" t="b">
+      <c r="F5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="23">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23">
+        <v>2</v>
+      </c>
+      <c r="I5" s="23">
+        <v>1</v>
+      </c>
+      <c r="J5" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="18">
-        <v>2</v>
-      </c>
-      <c r="L5" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="18">
+      <c r="K5" s="23">
+        <v>2</v>
+      </c>
+      <c r="L5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="23">
         <v>200000</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="18">
+        <v>46</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="23">
         <v>0</v>
       </c>
-      <c r="R5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>28</v>
+      <c r="R5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="14.25"/>
@@ -2553,7 +2211,7 @@
     <row r="9" s="5" customFormat="1" ht="14.25"/>
     <row r="10" s="5" customFormat="1" ht="14.25" spans="14:14">
       <c r="N10" s="5" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="14.25"/>
@@ -2605,13 +2263,661 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="43.375" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="29.0333333333333" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="34.25" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
+    <col min="7" max="10" width="26.875" customWidth="1"/>
+    <col min="11" max="11" width="28.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="99.75" spans="1:11">
+      <c r="A1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>4</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" s="18" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A6" s="18">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>3</v>
+      </c>
+      <c r="F6" s="21">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="19" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A7" s="19">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19">
+        <v>3</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>4</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1001</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1101</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1101</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1102</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1102</v>
+      </c>
+      <c r="F11" s="20">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1103</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1103</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1104</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1104</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1105</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1105</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="18">
+        <v>1106</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1106</v>
+      </c>
+      <c r="F15" s="20">
+        <v>1</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="18">
+        <v>1107</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1107</v>
+      </c>
+      <c r="F16" s="20">
+        <v>1</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" s="5" customFormat="1" ht="14.25" spans="5:6">
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:K4">
+      <formula1>数据类型!$B$2:$B$51</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2631,42 +2937,42 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="165" customHeight="1" spans="1:11">
       <c r="A1" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:11">
       <c r="A2" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -2701,72 +3007,72 @@
     </row>
     <row r="3" s="4" customFormat="1" ht="14.25" spans="1:11">
       <c r="A3" s="9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:11">
       <c r="A4" s="9" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" ht="54" spans="1:11">
@@ -2777,16 +3083,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D5" s="15">
         <v>1</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G5" s="15">
         <v>1</v>
@@ -2801,7 +3107,7 @@
         <v>10000</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" ht="94.5" spans="1:11">
@@ -2812,16 +3118,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D6" s="15">
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G6" s="15">
         <v>0</v>
@@ -2836,7 +3142,7 @@
         <v>1000</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" s="12" customFormat="1" ht="40.5" spans="1:11">
@@ -2847,16 +3153,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D7" s="12">
         <v>2</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
@@ -2871,7 +3177,7 @@
         <v>1000</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2897,18 +3203,18 @@
   <sheetData>
     <row r="1" ht="57" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -2919,24 +3225,24 @@
     </row>
     <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2956,7 +3262,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2971,30 +3277,30 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="60" customHeight="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -3017,48 +3323,48 @@
     </row>
     <row r="3" s="4" customFormat="1" ht="14.25" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" ht="14.25" spans="1:7">
@@ -3069,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -3078,10 +3384,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" ht="14.25"/>
@@ -3135,19 +3441,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3155,16 +3461,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3172,16 +3478,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3189,16 +3495,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3206,16 +3512,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3223,16 +3529,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3240,14 +3546,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3255,16 +3561,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3272,16 +3578,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3289,16 +3595,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3306,16 +3612,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3323,16 +3629,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3340,13 +3646,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3354,10 +3660,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3365,10 +3671,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3376,10 +3682,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3387,10 +3693,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3398,10 +3704,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3409,10 +3715,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3420,10 +3726,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3431,10 +3737,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3442,10 +3748,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3453,10 +3759,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3464,10 +3770,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3475,10 +3781,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3486,16 +3792,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3503,16 +3809,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3520,16 +3826,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3537,16 +3843,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3554,13 +3860,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3568,16 +3874,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3585,16 +3891,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3602,16 +3908,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3619,16 +3925,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3636,16 +3942,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3653,14 +3959,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3668,11 +3974,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3680,16 +3986,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
